--- a/server/uploads/validated_output.xlsx
+++ b/server/uploads/validated_output.xlsx
@@ -11,48 +11,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>cost per bag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>cost_per_bag</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Ali Khan</t>
+  </si>
+  <si>
+    <t>ali@example.com</t>
+  </si>
+  <si>
+    <t>03001234567</t>
+  </si>
+  <si>
+    <t>Lahore, Pakistan</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S900</t>
+    <t>Sana Raza</t>
+  </si>
+  <si>
+    <t>sana.raza@example.com</t>
+  </si>
+  <si>
+    <t>03111234567</t>
+  </si>
+  <si>
+    <t>Karachi, Pakistan</t>
+  </si>
+  <si>
+    <t>S700</t>
   </si>
   <si>
     <t>Error: cost should be any number</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>45x</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>03211234567</t>
+  </si>
+  <si>
+    <t>Islamabad, PK</t>
   </si>
 </sst>
 </file>
@@ -447,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="25" customWidth="1"/>
+    <col min="1" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,82 +487,83 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>600</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>110</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>350</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>300</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/server/uploads/validated_output.xlsx
+++ b/server/uploads/validated_output.xlsx
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>

--- a/server/uploads/validated_output.xlsx
+++ b/server/uploads/validated_output.xlsx
@@ -11,79 +11,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>cost_per_bag</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Ali Khan</t>
-  </si>
-  <si>
-    <t>ali@example.com</t>
-  </si>
-  <si>
-    <t>03001234567</t>
-  </si>
-  <si>
-    <t>Lahore, Pakistan</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Sana Raza</t>
-  </si>
-  <si>
-    <t>sana.raza@example.com</t>
-  </si>
-  <si>
-    <t>03111234567</t>
-  </si>
-  <si>
-    <t>Karachi, Pakistan</t>
-  </si>
-  <si>
-    <t>S700</t>
-  </si>
-  <si>
     <t>Error: cost should be any number</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>john@example.com</t>
-  </si>
-  <si>
-    <t>03211234567</t>
-  </si>
-  <si>
-    <t>Islamabad, PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -92,23 +35,15 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="006100"/>
-    </font>
-    <font>
       <color rgb="9C0006"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -128,10 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,99 +405,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="7" width="25" customWidth="1"/>
+    <col min="1" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>350</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
